--- a/singularity.xlsx
+++ b/singularity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clickdee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clickdee\singularityDAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788BD2E-E9E0-4475-8895-31509C350AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F63DC-D8FB-425C-A28B-67B2B19A78A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A9B3861-B0F8-444B-A2EC-AE378BC1F08C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t xml:space="preserve">Protocol </t>
   </si>
@@ -89,12 +89,6 @@
     <t>to get the reserves of the 2 tokens in the pool</t>
   </si>
   <si>
-    <t>0x3A925503970D40D36D2329e3846E09fcfc9b6aCB(SDAO/USDT pool)</t>
-  </si>
-  <si>
-    <t>0x4bB0925FA50Da9B4c8936869433b48e78cCc5c13(AGIX/USDT pool)</t>
-  </si>
-  <si>
     <t>0xfB85B9Ec50560e302Ab106F1E2857d95132120D0(SDAO staking)</t>
   </si>
   <si>
@@ -186,6 +180,18 @@
   </si>
   <si>
     <t>userInfo(3,address)</t>
+  </si>
+  <si>
+    <t>pendingRewards(4,address)</t>
+  </si>
+  <si>
+    <t>userInfo(4,address)</t>
+  </si>
+  <si>
+    <t>0x4bB0925FA50Da9B4c8936869433b48e78cCc5c13(AGIX/USDT pool uniswap)</t>
+  </si>
+  <si>
+    <t>0x3A925503970D40D36D2329e3846E09fcfc9b6aCB(SDAO/USDT pool uniswap)</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F47127C-AFC1-4FB1-8453-E8173ECF4D9F}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,12 +587,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -598,225 +604,258 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>50</v>
       </c>
       <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
       <c r="D30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="D32" t="s">
         <v>20</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E32" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D33" t="s">
         <v>23</v>
       </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
       <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
         <v>24</v>
       </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -824,41 +863,27 @@
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/singularity.xlsx
+++ b/singularity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clickdee\singularityDAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F63DC-D8FB-425C-A28B-67B2B19A78A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A84C85-E811-47D6-8847-3BF28C9D97B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A9B3861-B0F8-444B-A2EC-AE378BC1F08C}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>0xB3D994978D2Bc50d2ce74c45FcD923E7C9c06730(WETH/NTX pool uniswap)</t>
   </si>
   <si>
-    <t>0xb267DeaACe0B8c5FcB2bb04801A364e7Af7DA3F4(WETH/NTX pool)</t>
-  </si>
-  <si>
     <t>to get the number of reward tokens</t>
   </si>
   <si>
@@ -155,15 +152,9 @@
     <t>rewardsToken</t>
   </si>
   <si>
-    <t>0xfB85B9Ec50560e302Ab106F1E2857d95132120D0(WETH/SDAO pool)</t>
-  </si>
-  <si>
     <t>0x424485f89ea52839fdB30640Eb7DD7E0078E12fb(WETH/SDAO pool uniswap)</t>
   </si>
   <si>
-    <t>0xfB85B9Ec50560e302Ab106F1E2857d95132120D0(AGIX/ETH pool)</t>
-  </si>
-  <si>
     <t>0xe45b4a84E0aD24B8617a489d743c52B84B7aCeBE(AGIX/ETH pool uniswap)</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>userInfo(2,address)</t>
   </si>
   <si>
-    <t>0xfB85B9Ec50560e302Ab106F1E2857d95132120D0(SDAO/USDT pool)</t>
-  </si>
-  <si>
     <t>pendingRewards(3,address)</t>
   </si>
   <si>
@@ -192,6 +180,18 @@
   </si>
   <si>
     <t>0x3A925503970D40D36D2329e3846E09fcfc9b6aCB(SDAO/USDT pool uniswap)</t>
+  </si>
+  <si>
+    <t>0xfB85B9Ec50560e302Ab106F1E2857d95132120D0(WETH/SDAO pool token tracker)</t>
+  </si>
+  <si>
+    <t>0xb267DeaACe0B8c5FcB2bb04801A364e7Af7DA3F4(WETH/NTX pool token tracker)</t>
+  </si>
+  <si>
+    <t>0xfB85B9Ec50560e302Ab106F1E2857d95132120D0(AGIX/ETH pool token tracker)</t>
+  </si>
+  <si>
+    <t>0xfB85B9Ec50560e302Ab106F1E2857d95132120D0(SDAO/USDT pool token tracker)</t>
   </si>
 </sst>
 </file>
@@ -558,13 +558,13 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
     <col min="4" max="4" width="58.6640625" customWidth="1"/>
     <col min="5" max="5" width="38.77734375" customWidth="1"/>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -641,13 +641,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,15 +655,15 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,13 +673,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -687,111 +687,111 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
@@ -872,7 +872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>33</v>
       </c>
